--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -16,11 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>0幻0进</t>
   </si>
   <si>
+    <t>0幻1进</t>
+  </si>
+  <si>
+    <t>0幻2进</t>
+  </si>
+  <si>
     <t>0幻终极</t>
   </si>
   <si>
@@ -33,12 +39,21 @@
     <t>2幻0进</t>
   </si>
   <si>
+    <t>2幻1进</t>
+  </si>
+  <si>
     <t>2幻终极</t>
   </si>
   <si>
     <t>3幻0进</t>
   </si>
   <si>
+    <t>3幻1进</t>
+  </si>
+  <si>
+    <t>3幻2进</t>
+  </si>
+  <si>
     <t>3幻终极</t>
   </si>
   <si>
@@ -49,6 +64,18 @@
   </si>
   <si>
     <t>满级成长</t>
+  </si>
+  <si>
+    <t>属性点</t>
+  </si>
+  <si>
+    <t>排行显示</t>
+  </si>
+  <si>
+    <t>排行属性点</t>
+  </si>
+  <si>
+    <t>56.50</t>
   </si>
 </sst>
 </file>
@@ -56,12 +83,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,20 +99,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,9 +120,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,21 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,64 +179,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +250,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,169 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +454,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -444,6 +479,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +503,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,24 +533,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -506,179 +541,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,130 +1046,156 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:Q7"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="1" spans="16:18">
+      <c r="P1" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>35.04</v>
+      </c>
+      <c r="R1" s="1">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>100846</v>
       </c>
-      <c r="D4" s="2">
+      <c r="N4" s="1">
         <v>33.07</v>
       </c>
-      <c r="H4" s="2">
-        <v>33.07</v>
-      </c>
-      <c r="L4" s="2">
-        <v>33.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>91548</v>
       </c>
-      <c r="D5" s="2">
+      <c r="N5" s="1">
         <v>33.07</v>
       </c>
-      <c r="E5" s="1">
-        <v>38.21</v>
-      </c>
-      <c r="H5" s="2">
-        <v>33.07</v>
-      </c>
-      <c r="I5" s="1">
-        <v>38.21</v>
-      </c>
-      <c r="L5" s="2">
-        <v>33.07</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>38.21</v>
       </c>
     </row>
@@ -1160,11 +1203,8 @@
       <c r="A6" s="1">
         <v>94421</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>13.29</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15.66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1178,17 +1218,224 @@
         <v>13.73</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>102065</v>
+      </c>
+      <c r="F8" s="1">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>102066</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="J9" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="L9" s="1">
+        <v>23.67</v>
+      </c>
+      <c r="N9" s="1">
+        <v>33.23</v>
+      </c>
+      <c r="O9" s="1">
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>102067</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>102068</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>106486</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>104907</v>
+      </c>
+      <c r="H13" s="1">
+        <v>21.61</v>
+      </c>
+      <c r="I13" s="1">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>108079</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15.69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21.61</v>
+      </c>
+      <c r="D22" s="1">
+        <v>25.65</v>
+      </c>
+      <c r="E22" s="1">
+        <v>33.23</v>
+      </c>
+      <c r="F22" s="1">
+        <v>38.33</v>
+      </c>
+      <c r="G22" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>35.04</v>
+      </c>
+      <c r="I22" s="1">
+        <v>35.74</v>
+      </c>
+      <c r="J22" s="1">
+        <v>41.17</v>
+      </c>
+      <c r="K22" s="1">
+        <v>42.08</v>
+      </c>
+      <c r="L22" s="1">
+        <v>48.44</v>
+      </c>
+      <c r="M22" s="1">
+        <v>49.26</v>
+      </c>
+      <c r="N22" s="1">
+        <v>56.61</v>
+      </c>
+      <c r="O22" s="1">
+        <v>70739</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>70741</v>
+      </c>
+    </row>
+    <row r="23" spans="13:17">
+      <c r="M23" s="1">
+        <v>49.14</v>
+      </c>
+      <c r="N23" s="1">
+        <v>56.48</v>
+      </c>
+      <c r="O23" s="1">
+        <v>70572</v>
+      </c>
+      <c r="P23" s="1">
+        <v>56.37</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>70572</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12045"/>
+    <workbookView windowWidth="15480" windowHeight="8800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>0幻0进</t>
   </si>
@@ -66,6 +66,12 @@
     <t>满级成长</t>
   </si>
   <si>
+    <t>130491</t>
+  </si>
+  <si>
+    <t>10.52</t>
+  </si>
+  <si>
     <t>属性点</t>
   </si>
   <si>
@@ -76,6 +82,18 @@
   </si>
   <si>
     <t>56.50</t>
+  </si>
+  <si>
+    <t>33.32</t>
+  </si>
+  <si>
+    <t>38.42</t>
+  </si>
+  <si>
+    <t>33.30</t>
+  </si>
+  <si>
+    <t>38.47</t>
   </si>
 </sst>
 </file>
@@ -84,164 +102,138 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+  <fonts count="19">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,187 +242,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,41 +346,80 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,46 +428,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +436,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,148 +448,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,61 +603,55 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -805,71 +701,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1002,8 +898,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -1039,17 +935,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,6 +1227,14 @@
         <v>8.44</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>3</v>
@@ -1356,13 +1302,13 @@
         <v>15</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1412,13 +1358,19 @@
         <v>70739</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="1">
         <v>70741</v>
       </c>
     </row>
-    <row r="23" spans="13:17">
+    <row r="23" spans="5:17">
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M23" s="1">
         <v>49.14</v>
       </c>
@@ -1433,12 +1385,20 @@
       </c>
       <c r="Q23" s="1">
         <v>70572</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1455,7 +1415,7 @@
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -1472,6 +1432,6 @@
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15480" windowHeight="8800"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>0幻0进</t>
   </si>
@@ -66,12 +66,42 @@
     <t>满级成长</t>
   </si>
   <si>
+    <t>13.33/15.69</t>
+  </si>
+  <si>
     <t>130491</t>
   </si>
   <si>
     <t>10.52</t>
   </si>
   <si>
+    <t>130861</t>
+  </si>
+  <si>
+    <t>21.55</t>
+  </si>
+  <si>
+    <t>25.06</t>
+  </si>
+  <si>
+    <t>131319</t>
+  </si>
+  <si>
+    <t>10.53</t>
+  </si>
+  <si>
+    <t>132240</t>
+  </si>
+  <si>
+    <t>13.31/15.69</t>
+  </si>
+  <si>
+    <t>132599</t>
+  </si>
+  <si>
+    <t>6.08/7.40</t>
+  </si>
+  <si>
     <t>属性点</t>
   </si>
   <si>
@@ -79,6 +109,9 @@
   </si>
   <si>
     <t>排行属性点</t>
+  </si>
+  <si>
+    <t>15.69</t>
   </si>
   <si>
     <t>56.50</t>
@@ -101,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -115,22 +148,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -140,45 +167,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -193,13 +181,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -207,28 +188,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -239,6 +285,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -248,7 +318,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,79 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,17 +392,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -376,21 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -402,8 +442,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -424,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -432,226 +489,230 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -701,71 +762,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1177,10 +1238,10 @@
       <c r="L9" s="1">
         <v>23.67</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>33.23</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <v>38.33</v>
       </c>
     </row>
@@ -1204,18 +1265,18 @@
       <c r="A12" s="1">
         <v>106486</v>
       </c>
-      <c r="E12" s="1">
-        <v>13.33</v>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>104907</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>21.61</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>25.65</v>
       </c>
     </row>
@@ -1229,170 +1290,220 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
+      <c r="O29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
         <v>13.33</v>
       </c>
-      <c r="B22" s="1">
-        <v>15.69</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
         <v>21.61</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D30" s="1">
         <v>25.65</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E30" s="1">
         <v>33.23</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F30" s="1">
         <v>38.33</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G30" s="1">
         <v>30.2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H30" s="1">
         <v>35.04</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I30" s="1">
         <v>35.74</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J30" s="1">
         <v>41.17</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K30" s="1">
         <v>42.08</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L30" s="1">
         <v>48.44</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M30" s="1">
         <v>49.26</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N30" s="1">
         <v>56.61</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O30" s="1">
         <v>70739</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="P30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="1">
         <v>70741</v>
       </c>
     </row>
-    <row r="23" spans="5:17">
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="1">
+    <row r="31" spans="13:17">
+      <c r="M31" s="1">
         <v>49.14</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N31" s="1">
         <v>56.48</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O31" s="1">
         <v>70572</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P31" s="1">
         <v>56.37</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q31" s="1">
         <v>70572</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
+    <row r="32" spans="5:6">
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>0幻0进</t>
   </si>
@@ -33,6 +33,12 @@
     <t>1幻0进</t>
   </si>
   <si>
+    <t>1幻1进</t>
+  </si>
+  <si>
+    <t>1幻2进</t>
+  </si>
+  <si>
     <t>1幻终极</t>
   </si>
   <si>
@@ -42,6 +48,9 @@
     <t>2幻1进</t>
   </si>
   <si>
+    <t>2幻2进</t>
+  </si>
+  <si>
     <t>2幻终极</t>
   </si>
   <si>
@@ -60,15 +69,39 @@
     <t>宠物id</t>
   </si>
   <si>
-    <t>1级成长</t>
-  </si>
-  <si>
-    <t>满级成长</t>
+    <t>1级/满级成长</t>
+  </si>
+  <si>
+    <t>33.07/38.21</t>
+  </si>
+  <si>
+    <t>11.56/13.73</t>
+  </si>
+  <si>
+    <t>33.23/38.33</t>
   </si>
   <si>
     <t>13.33/15.69</t>
   </si>
   <si>
+    <t>21.61/25.65</t>
+  </si>
+  <si>
+    <t>107421</t>
+  </si>
+  <si>
+    <t>30.2/35.04</t>
+  </si>
+  <si>
+    <t>35.74/41.17</t>
+  </si>
+  <si>
+    <t>42.08/48.44</t>
+  </si>
+  <si>
+    <t>49.26/56.61</t>
+  </si>
+  <si>
     <t>130491</t>
   </si>
   <si>
@@ -78,10 +111,7 @@
     <t>130861</t>
   </si>
   <si>
-    <t>21.55</t>
-  </si>
-  <si>
-    <t>25.06</t>
+    <t>21.55/25.06</t>
   </si>
   <si>
     <t>131319</t>
@@ -102,6 +132,33 @@
     <t>6.08/7.40</t>
   </si>
   <si>
+    <t>11.57</t>
+  </si>
+  <si>
+    <t>14.72</t>
+  </si>
+  <si>
+    <t>17.70</t>
+  </si>
+  <si>
+    <t>21.53</t>
+  </si>
+  <si>
+    <t>133060</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>11.55</t>
+  </si>
+  <si>
+    <t>133987</t>
+  </si>
+  <si>
+    <t>6.08/7.47</t>
+  </si>
+  <si>
     <t>属性点</t>
   </si>
   <si>
@@ -111,22 +168,22 @@
     <t>排行属性点</t>
   </si>
   <si>
-    <t>15.69</t>
+    <t>第二届1</t>
   </si>
   <si>
     <t>56.50</t>
   </si>
   <si>
-    <t>33.32</t>
-  </si>
-  <si>
-    <t>38.42</t>
-  </si>
-  <si>
-    <t>33.30</t>
-  </si>
-  <si>
-    <t>38.47</t>
+    <t>第二届2</t>
+  </si>
+  <si>
+    <t>49.14/56.48</t>
+  </si>
+  <si>
+    <t>33.32/38.42</t>
+  </si>
+  <si>
+    <t>33.30/38.47</t>
   </si>
 </sst>
 </file>
@@ -279,12 +336,18 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -497,149 +560,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,8 +715,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,240 +1120,211 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="16:18">
-      <c r="P1" s="1">
-        <v>30.2</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>35.04</v>
-      </c>
-      <c r="R1" s="1">
-        <v>35.74</v>
-      </c>
-    </row>
-    <row r="2" spans="2:22">
+    <row r="1" spans="2:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>100846</v>
+      </c>
+      <c r="M3" s="1">
+        <v>33.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>100846</v>
-      </c>
-      <c r="N4" s="1">
-        <v>33.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>91548</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>91548</v>
-      </c>
-      <c r="N5" s="1">
-        <v>33.07</v>
-      </c>
-      <c r="O5" s="1">
-        <v>38.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>94421</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>94421</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>94194</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>94194</v>
+        <v>102065</v>
       </c>
       <c r="F7" s="1">
-        <v>11.56</v>
-      </c>
-      <c r="G7" s="1">
-        <v>13.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>102065</v>
-      </c>
-      <c r="F8" s="1">
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>102066</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="J8" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>23.67</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>102066</v>
+        <v>102067</v>
       </c>
       <c r="B9" s="1">
         <v>6.08</v>
       </c>
-      <c r="J9" s="1">
-        <v>19.37</v>
-      </c>
-      <c r="L9" s="1">
-        <v>23.67</v>
-      </c>
-      <c r="N9" s="3">
-        <v>33.23</v>
-      </c>
-      <c r="O9" s="3">
-        <v>38.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>102067</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.08</v>
+        <v>102068</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13.32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>102068</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>106486</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>106486</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
         <v>104907</v>
       </c>
-      <c r="H13" s="3">
-        <v>21.61</v>
-      </c>
-      <c r="I13" s="3">
-        <v>25.65</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
@@ -1290,223 +1336,206 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>21</v>
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="1">
-        <v>13.33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <v>21.61</v>
-      </c>
-      <c r="D30" s="1">
-        <v>25.65</v>
-      </c>
-      <c r="E30" s="1">
-        <v>33.23</v>
-      </c>
-      <c r="F30" s="1">
-        <v>38.33</v>
-      </c>
-      <c r="G30" s="1">
-        <v>30.2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>35.04</v>
-      </c>
-      <c r="I30" s="1">
-        <v>35.74</v>
-      </c>
-      <c r="J30" s="1">
-        <v>41.17</v>
-      </c>
-      <c r="K30" s="1">
-        <v>42.08</v>
-      </c>
-      <c r="L30" s="1">
-        <v>48.44</v>
-      </c>
-      <c r="M30" s="1">
-        <v>49.26</v>
-      </c>
-      <c r="N30" s="1">
-        <v>56.61</v>
-      </c>
-      <c r="O30" s="1">
-        <v>70739</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>70741</v>
-      </c>
-    </row>
-    <row r="31" spans="13:17">
-      <c r="M31" s="1">
-        <v>49.14</v>
-      </c>
-      <c r="N31" s="1">
-        <v>56.48</v>
-      </c>
-      <c r="O31" s="1">
-        <v>70572</v>
-      </c>
-      <c r="P31" s="1">
-        <v>56.37</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>70572</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1516,14 +1545,198 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="12" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1">
+        <v>70739</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1">
+        <v>70741</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1">
+        <v>70572</v>
+      </c>
+      <c r="N4" s="1">
+        <v>56.37</v>
+      </c>
+      <c r="O4" s="1">
+        <v>70572</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="15480" windowHeight="8800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>0幻0进</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>6.08/7.47</t>
+  </si>
+  <si>
+    <t>14.73/17.35</t>
+  </si>
+  <si>
+    <t>17.77/20.76</t>
   </si>
   <si>
     <t>属性点</t>
@@ -191,12 +197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,16 +211,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -226,9 +238,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -239,20 +263,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -265,13 +311,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -283,57 +329,10 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -345,7 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +362,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,55 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,15 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,56 +465,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,8 +487,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,174 +556,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -733,61 +729,55 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -837,71 +827,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,18 +1082,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -1123,7 +1115,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1282,7 +1274,7 @@
       <c r="A11" s="1">
         <v>106486</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1295,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:19">
+    <row r="13" s="2" customFormat="1" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1323,8 +1315,7 @@
       <c r="Q13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="8"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
@@ -1413,12 +1404,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1615,19 +1615,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1657,7 +1657,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1678,7 +1678,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1695,7 +1695,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1715,7 +1715,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>0幻0进</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>17.77/20.76</t>
+  </si>
+  <si>
+    <t>21.58</t>
+  </si>
+  <si>
+    <t>134314</t>
   </si>
   <si>
     <t>属性点</t>
@@ -1115,7 +1121,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1404,7 +1410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1419,6 +1425,14 @@
       </c>
       <c r="H22" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1615,19 +1629,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1657,7 +1671,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1666,7 +1680,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1678,7 +1692,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1695,7 +1709,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1715,7 +1729,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15480" windowHeight="8800"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>0幻0进</t>
   </si>
@@ -159,16 +159,34 @@
     <t>6.08/7.47</t>
   </si>
   <si>
+    <t>8.43/10.06</t>
+  </si>
+  <si>
+    <t>10.52/12.31</t>
+  </si>
+  <si>
+    <t>134314</t>
+  </si>
+  <si>
+    <t>6.08/</t>
+  </si>
+  <si>
     <t>14.73/17.35</t>
   </si>
   <si>
     <t>17.77/20.76</t>
   </si>
   <si>
-    <t>21.58</t>
-  </si>
-  <si>
-    <t>134314</t>
+    <t>21.58/25.11</t>
+  </si>
+  <si>
+    <t>134703</t>
+  </si>
+  <si>
+    <t>13.34/15.74</t>
+  </si>
+  <si>
+    <t>135018</t>
   </si>
   <si>
     <t>属性点</t>
@@ -204,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -217,7 +235,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -226,6 +278,44 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -235,11 +325,31 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -247,98 +357,6 @@
       <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -356,7 +374,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,43 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,31 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +479,41 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -475,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,30 +542,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,22 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,112 +580,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,34 +700,28 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,13 +735,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -735,55 +753,61 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -833,71 +857,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1121,7 +1145,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1410,29 +1434,60 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1629,19 +1684,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1671,7 +1726,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1680,7 +1735,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1692,7 +1747,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1709,7 +1764,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1729,7 +1784,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="15480" windowHeight="8800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>0幻0进</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>135018</t>
+  </si>
+  <si>
+    <t>135288</t>
+  </si>
+  <si>
+    <t>13.30/15.69</t>
+  </si>
+  <si>
+    <t>11.58</t>
+  </si>
+  <si>
+    <t>21.53/25.03</t>
+  </si>
+  <si>
+    <t>135676</t>
+  </si>
+  <si>
+    <t>11.58/13.69</t>
   </si>
   <si>
     <t>属性点</t>
@@ -221,10 +239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,13 +253,113 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -253,110 +371,10 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -374,7 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,49 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,19 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,16 +497,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,33 +515,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +525,6 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +544,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,148 +598,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,13 +753,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -753,61 +771,55 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -857,71 +869,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1145,7 +1157,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1488,6 +1500,31 @@
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1684,19 +1721,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1726,7 +1763,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1735,7 +1772,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1747,7 +1784,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1764,7 +1801,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1784,7 +1821,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15480" windowHeight="8800"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>0幻0进</t>
   </si>
@@ -150,6 +150,9 @@
     <t>6.08</t>
   </si>
   <si>
+    <t>133872</t>
+  </si>
+  <si>
     <t>11.55</t>
   </si>
   <si>
@@ -189,6 +192,18 @@
     <t>135018</t>
   </si>
   <si>
+    <t>6.08/7.37</t>
+  </si>
+  <si>
+    <t>8.42/9.87</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
     <t>135288</t>
   </si>
   <si>
@@ -205,6 +220,15 @@
   </si>
   <si>
     <t>11.58/13.69</t>
+  </si>
+  <si>
+    <t>17.76</t>
+  </si>
+  <si>
+    <t>21.60/25.17</t>
+  </si>
+  <si>
+    <t>4.69/5.74</t>
   </si>
   <si>
     <t>属性点</t>
@@ -240,11 +264,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -253,7 +277,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -265,46 +393,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -312,69 +400,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -392,7 +422,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,61 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +526,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,11 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +602,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
@@ -565,31 +610,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,152 +628,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,16 +783,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -771,55 +804,61 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -869,71 +908,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1157,7 +1196,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1357,7 +1396,7 @@
       <c r="Q13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
@@ -1441,23 +1480,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
@@ -1465,10 +1507,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1477,73 +1519,97 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+        <v>67</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:19">
+      <c r="A28" s="4">
+        <v>136521</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29"/>
@@ -1721,19 +1787,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1763,7 +1829,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1772,7 +1838,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1784,7 +1850,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1801,7 +1867,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1821,7 +1887,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="28700" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>0幻0进</t>
   </si>
@@ -231,6 +231,54 @@
     <t>4.69/5.74</t>
   </si>
   <si>
+    <t>33.19/38.34</t>
+  </si>
+  <si>
+    <t>33.30/38.47</t>
+  </si>
+  <si>
+    <t>13.30/15.66</t>
+  </si>
+  <si>
+    <t>142684</t>
+  </si>
+  <si>
+    <t>6.08/7.46</t>
+  </si>
+  <si>
+    <t>11.55/</t>
+  </si>
+  <si>
+    <t>143389</t>
+  </si>
+  <si>
+    <t>21.53/25.05</t>
+  </si>
+  <si>
+    <t>144037</t>
+  </si>
+  <si>
+    <t>10.53/12.52</t>
+  </si>
+  <si>
+    <t>13.32/</t>
+  </si>
+  <si>
+    <t>144535</t>
+  </si>
+  <si>
+    <t>21.59/25.15</t>
+  </si>
+  <si>
+    <t>145071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>13.30/15.60</t>
+  </si>
+  <si>
     <t>属性点</t>
   </si>
   <si>
@@ -253,9 +301,6 @@
   </si>
   <si>
     <t>33.32/38.42</t>
-  </si>
-  <si>
-    <t>33.30/38.47</t>
   </si>
 </sst>
 </file>
@@ -263,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -276,16 +321,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="20"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -294,13 +334,13 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -314,6 +354,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -321,20 +394,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -354,34 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -400,11 +433,24 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -422,7 +468,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,25 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,31 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,10 +574,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -548,24 +592,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,157 +649,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,20 +829,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -804,61 +853,55 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -908,71 +951,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1193,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1396,7 +1439,7 @@
       <c r="Q13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
@@ -1532,7 +1575,7 @@
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1583,7 +1626,7 @@
       <c r="H27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1609,10 +1652,12 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="S28" s="8"/>
+      <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29"/>
+      <c r="A29" s="1">
+        <v>141296</v>
+      </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1624,13 +1669,17 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29"/>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
       <c r="N29"/>
       <c r="P29"/>
       <c r="Q29"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30"/>
+      <c r="A30" s="1">
+        <v>129996</v>
+      </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1642,21 +1691,27 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30"/>
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
       <c r="N30"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="A31" s="7">
+        <v>142013</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -1666,33 +1721,39 @@
       <c r="Q31"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="A32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="N32"/>
       <c r="P32"/>
       <c r="Q32"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="A33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -1700,6 +1761,76 @@
       <c r="N33"/>
       <c r="P33"/>
       <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1787,19 +1918,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1829,7 +1960,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1838,7 +1969,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1850,7 +1981,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1867,7 +1998,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1887,7 +2018,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>0幻0进</t>
   </si>
@@ -276,7 +276,10 @@
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>13.30/15.60</t>
+    <t>13.30/15.62</t>
+  </si>
+  <si>
+    <t>145537</t>
   </si>
   <si>
     <t>属性点</t>
@@ -1236,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1831,6 +1834,14 @@
       <c r="N36"/>
       <c r="P36"/>
       <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1918,19 +1929,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1960,7 +1971,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1969,7 +1980,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1981,7 +1992,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -1998,7 +2009,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>0幻0进</t>
   </si>
@@ -150,136 +150,208 @@
     <t>6.08</t>
   </si>
   <si>
+    <t>133987</t>
+  </si>
+  <si>
+    <t>6.08/7.47</t>
+  </si>
+  <si>
+    <t>8.43/10.06</t>
+  </si>
+  <si>
+    <t>10.52/12.31</t>
+  </si>
+  <si>
+    <t>134314</t>
+  </si>
+  <si>
+    <t>6.08/</t>
+  </si>
+  <si>
+    <t>14.73/17.35</t>
+  </si>
+  <si>
+    <t>17.77/20.76</t>
+  </si>
+  <si>
+    <t>21.58/25.11</t>
+  </si>
+  <si>
+    <t>134703</t>
+  </si>
+  <si>
+    <t>13.34/15.74</t>
+  </si>
+  <si>
+    <t>135018</t>
+  </si>
+  <si>
+    <t>6.08/7.37</t>
+  </si>
+  <si>
+    <t>8.42/9.87</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
+    <t>135288</t>
+  </si>
+  <si>
+    <t>13.30/15.69</t>
+  </si>
+  <si>
+    <t>11.58</t>
+  </si>
+  <si>
+    <t>21.53/25.03</t>
+  </si>
+  <si>
+    <t>135676</t>
+  </si>
+  <si>
+    <t>11.58/13.69</t>
+  </si>
+  <si>
+    <t>17.76</t>
+  </si>
+  <si>
+    <t>21.60/25.17</t>
+  </si>
+  <si>
+    <t>4.69/5.74</t>
+  </si>
+  <si>
+    <t>33.19/38.34</t>
+  </si>
+  <si>
+    <t>33.30/38.47</t>
+  </si>
+  <si>
+    <t>13.30/15.66</t>
+  </si>
+  <si>
+    <t>142684</t>
+  </si>
+  <si>
+    <t>6.08/7.46</t>
+  </si>
+  <si>
+    <t>11.55/</t>
+  </si>
+  <si>
+    <t>143389</t>
+  </si>
+  <si>
+    <t>21.53/25.05</t>
+  </si>
+  <si>
+    <t>144037</t>
+  </si>
+  <si>
+    <t>10.53/12.52</t>
+  </si>
+  <si>
+    <t>13.32/</t>
+  </si>
+  <si>
+    <t>144535</t>
+  </si>
+  <si>
+    <t>21.59/25.15</t>
+  </si>
+  <si>
+    <t>145071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>13.30/15.62</t>
+  </si>
+  <si>
+    <t>145537</t>
+  </si>
+  <si>
+    <t>13.32/15.71</t>
+  </si>
+  <si>
+    <t>146090</t>
+  </si>
+  <si>
+    <t>21.58/25.12</t>
+  </si>
+  <si>
+    <t>146742</t>
+  </si>
+  <si>
+    <t>8.42/9.98</t>
+  </si>
+  <si>
+    <t>147184</t>
+  </si>
+  <si>
+    <t>11.59/</t>
+  </si>
+  <si>
+    <t>17.72</t>
+  </si>
+  <si>
+    <t>21.55/25.09</t>
+  </si>
+  <si>
+    <t>148076</t>
+  </si>
+  <si>
+    <t>13.29/15.66</t>
+  </si>
+  <si>
+    <t>149241</t>
+  </si>
+  <si>
+    <t>14.66</t>
+  </si>
+  <si>
+    <t>150141</t>
+  </si>
+  <si>
+    <t>21.54/25.04</t>
+  </si>
+  <si>
+    <t>150744</t>
+  </si>
+  <si>
+    <t>10.50/</t>
+  </si>
+  <si>
+    <t>13.28</t>
+  </si>
+  <si>
+    <t>151638</t>
+  </si>
+  <si>
+    <t>21.48/25.00</t>
+  </si>
+  <si>
+    <t>152167</t>
+  </si>
+  <si>
+    <t>136489</t>
+  </si>
+  <si>
+    <t>13.31/15.71</t>
+  </si>
+  <si>
     <t>133872</t>
   </si>
   <si>
     <t>11.55</t>
   </si>
   <si>
-    <t>133987</t>
-  </si>
-  <si>
-    <t>6.08/7.47</t>
-  </si>
-  <si>
-    <t>8.43/10.06</t>
-  </si>
-  <si>
-    <t>10.52/12.31</t>
-  </si>
-  <si>
-    <t>134314</t>
-  </si>
-  <si>
-    <t>6.08/</t>
-  </si>
-  <si>
-    <t>14.73/17.35</t>
-  </si>
-  <si>
-    <t>17.77/20.76</t>
-  </si>
-  <si>
-    <t>21.58/25.11</t>
-  </si>
-  <si>
-    <t>134703</t>
-  </si>
-  <si>
-    <t>13.34/15.74</t>
-  </si>
-  <si>
-    <t>135018</t>
-  </si>
-  <si>
-    <t>6.08/7.37</t>
-  </si>
-  <si>
-    <t>8.42/9.87</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>13.29</t>
-  </si>
-  <si>
-    <t>135288</t>
-  </si>
-  <si>
-    <t>13.30/15.69</t>
-  </si>
-  <si>
-    <t>11.58</t>
-  </si>
-  <si>
-    <t>21.53/25.03</t>
-  </si>
-  <si>
-    <t>135676</t>
-  </si>
-  <si>
-    <t>11.58/13.69</t>
-  </si>
-  <si>
-    <t>17.76</t>
-  </si>
-  <si>
-    <t>21.60/25.17</t>
-  </si>
-  <si>
-    <t>4.69/5.74</t>
-  </si>
-  <si>
-    <t>33.19/38.34</t>
-  </si>
-  <si>
-    <t>33.30/38.47</t>
-  </si>
-  <si>
-    <t>13.30/15.66</t>
-  </si>
-  <si>
-    <t>142684</t>
-  </si>
-  <si>
-    <t>6.08/7.46</t>
-  </si>
-  <si>
-    <t>11.55/</t>
-  </si>
-  <si>
-    <t>143389</t>
-  </si>
-  <si>
-    <t>21.53/25.05</t>
-  </si>
-  <si>
-    <t>144037</t>
-  </si>
-  <si>
-    <t>10.53/12.52</t>
-  </si>
-  <si>
-    <t>13.32/</t>
-  </si>
-  <si>
-    <t>144535</t>
-  </si>
-  <si>
-    <t>21.59/25.15</t>
-  </si>
-  <si>
-    <t>145071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>13.30/15.62</t>
-  </si>
-  <si>
-    <t>145537</t>
+    <t>21.49/</t>
   </si>
   <si>
     <t>属性点</t>
@@ -1239,10 +1311,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,26 +1598,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
@@ -1553,10 +1617,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1565,123 +1629,101 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="1" t="s">
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:19">
+      <c r="A29" s="4">
+        <v>136521</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:19">
-      <c r="A28" s="4">
-        <v>136521</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
-        <v>141296</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>129996</v>
+        <v>141296</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1695,92 +1737,90 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N30"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="7">
-        <v>142013</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="1">
+        <v>129996</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31"/>
+      <c r="M31" t="s">
+        <v>70</v>
+      </c>
       <c r="N31"/>
       <c r="P31"/>
       <c r="Q31"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="7">
+        <v>142013</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
       <c r="N32"/>
       <c r="P32"/>
       <c r="Q32"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
+      <c r="I33" s="7"/>
       <c r="N33"/>
       <c r="P33"/>
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -1791,18 +1831,20 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="I35" s="7"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -1813,20 +1855,18 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -1835,12 +1875,281 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:17">
+      <c r="A37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1929,19 +2238,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1971,7 +2280,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -1980,7 +2289,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1992,7 +2301,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -2009,7 +2318,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2029,7 +2338,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="13020"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>0幻0进</t>
   </si>
@@ -150,6 +150,15 @@
     <t>6.08</t>
   </si>
   <si>
+    <t>133872</t>
+  </si>
+  <si>
+    <t>11.55</t>
+  </si>
+  <si>
+    <t>21.49/25.01</t>
+  </si>
+  <si>
     <t>133987</t>
   </si>
   <si>
@@ -345,13 +354,16 @@
     <t>13.31/15.71</t>
   </si>
   <si>
-    <t>133872</t>
-  </si>
-  <si>
-    <t>11.55</t>
-  </si>
-  <si>
-    <t>21.49/</t>
+    <t>153541</t>
+  </si>
+  <si>
+    <t>11.58/13.72</t>
+  </si>
+  <si>
+    <t>14.72/</t>
+  </si>
+  <si>
+    <t>17.70/20.55</t>
   </si>
   <si>
     <t>属性点</t>
@@ -383,9 +395,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -394,125 +406,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -526,6 +419,125 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="19">
@@ -543,13 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,31 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +597,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,8 +661,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -671,6 +685,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -682,6 +714,15 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,15 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -724,173 +756,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,22 +916,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -928,55 +940,61 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1026,71 +1044,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1313,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1598,18 +1616,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="21" s="1" customFormat="1" spans="1:19">
+      <c r="A21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21" s="1"/>
+      <c r="S21"/>
+    </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>35</v>
@@ -1617,10 +1662,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1629,72 +1674,72 @@
         <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:19">
@@ -1702,7 +1747,7 @@
         <v>136521</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1737,7 +1782,7 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N30"/>
       <c r="P30"/>
@@ -1759,7 +1804,7 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N31"/>
       <c r="P31"/>
@@ -1773,7 +1818,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -1789,16 +1834,16 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -1809,7 +1854,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1819,7 +1864,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -1831,15 +1876,15 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1855,7 +1900,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1865,7 +1910,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -1877,15 +1922,15 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1901,7 +1946,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>43</v>
@@ -1909,7 +1954,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1925,7 +1970,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>43</v>
@@ -1937,7 +1982,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -1949,11 +1994,11 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1971,21 +2016,21 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -1997,13 +2042,13 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -2019,17 +2064,17 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -2043,7 +2088,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2053,7 +2098,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -2065,15 +2110,15 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2089,7 +2134,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2099,7 +2144,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -2111,23 +2156,23 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2141,15 +2186,21 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2238,19 +2289,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -2280,7 +2331,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -2289,7 +2340,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2301,7 +2352,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -2318,7 +2369,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2338,7 +2389,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/文档/宠物成长.xlsx
+++ b/文档/宠物成长.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="28700" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>0幻0进</t>
   </si>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>17.70/20.55</t>
+  </si>
+  <si>
+    <t>21.51/25.07</t>
+  </si>
+  <si>
+    <t>154156</t>
+  </si>
+  <si>
+    <t>10.52/</t>
+  </si>
+  <si>
+    <t>154586</t>
   </si>
   <si>
     <t>属性点</t>
@@ -395,9 +407,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -408,17 +420,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -427,17 +433,18 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -453,11 +460,30 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -467,7 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -479,9 +505,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -501,43 +527,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <strike/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -550,18 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +609,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,7 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,19 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,12 +671,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -685,24 +710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -714,6 +721,15 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,17 +758,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,148 +773,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,22 +928,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -940,61 +952,55 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="强调文字颜色 4" xfId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15"/>
+    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="标题 4" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="解释性文本" xfId="19"/>
+    <cellStyle name="标题 1" xfId="20"/>
+    <cellStyle name="标题 2" xfId="21"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="计算" xfId="26"/>
+    <cellStyle name="检查单元格" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="强调文字颜色 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="汇总" xfId="31"/>
+    <cellStyle name="好" xfId="32"/>
+    <cellStyle name="适中" xfId="33"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 3" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle name="强调文字颜色 5" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1044,71 +1050,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1329,10 +1335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A50" sqref="50:51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1640,7 +1646,6 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" s="1"/>
       <c r="S21"/>
     </row>
     <row r="22" spans="1:5">
@@ -2162,46 +2167,101 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:17">
-      <c r="A48" s="1" t="s">
+    <row r="48" customFormat="1" spans="1:14">
+      <c r="A48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="3"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="I49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2289,19 +2349,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -2331,7 +2391,7 @@
         <v>70739</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O3" s="1">
         <v>70741</v>
@@ -2340,7 +2400,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2352,7 +2412,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M4" s="1">
         <v>70572</v>
@@ -2369,7 +2429,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
